--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vcam1-Itga9.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H2">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I2">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J2">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N2">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O2">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P2">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q2">
-        <v>19.00022163387111</v>
+        <v>2.284808099014223</v>
       </c>
       <c r="R2">
-        <v>171.00199470484</v>
+        <v>20.563272891128</v>
       </c>
       <c r="S2">
-        <v>0.05063566554814822</v>
+        <v>0.008488118953152168</v>
       </c>
       <c r="T2">
-        <v>0.05063566554814822</v>
+        <v>0.008488118953152169</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H3">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I3">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J3">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.177841</v>
       </c>
       <c r="O3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P3">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q3">
-        <v>65.61650014176978</v>
+        <v>21.44272166976078</v>
       </c>
       <c r="R3">
-        <v>590.5485012759279</v>
+        <v>192.984495027847</v>
       </c>
       <c r="S3">
-        <v>0.1748682315208205</v>
+        <v>0.07966024467910039</v>
       </c>
       <c r="T3">
-        <v>0.1748682315208204</v>
+        <v>0.07966024467910041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.295069333333332</v>
+        <v>3.037522333333333</v>
       </c>
       <c r="H4">
-        <v>27.885208</v>
+        <v>9.112567</v>
       </c>
       <c r="I4">
-        <v>0.2851098797714358</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="J4">
-        <v>0.2851098797714357</v>
+        <v>0.1153015356242242</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N4">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P4">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q4">
-        <v>22.36618932113511</v>
+        <v>7.309014826912112</v>
       </c>
       <c r="R4">
-        <v>201.295703890216</v>
+        <v>65.78113344220901</v>
       </c>
       <c r="S4">
-        <v>0.05960598270246705</v>
+        <v>0.02715317199197163</v>
       </c>
       <c r="T4">
-        <v>0.05960598270246705</v>
+        <v>0.02715317199197163</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>25.764247</v>
       </c>
       <c r="I5">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J5">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N5">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O5">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P5">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q5">
-        <v>17.55505654574278</v>
+        <v>6.459909728027555</v>
       </c>
       <c r="R5">
-        <v>157.995508911685</v>
+        <v>58.139187552248</v>
       </c>
       <c r="S5">
-        <v>0.04678429489182513</v>
+        <v>0.02399872541671231</v>
       </c>
       <c r="T5">
-        <v>0.04678429489182512</v>
+        <v>0.02399872541671231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>25.764247</v>
       </c>
       <c r="I6">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J6">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.177841</v>
       </c>
       <c r="O6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P6">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q6">
         <v>60.62568071674744</v>
@@ -818,10 +818,10 @@
         <v>545.6311264507269</v>
       </c>
       <c r="S6">
-        <v>0.161567678080637</v>
+        <v>0.2252259127414677</v>
       </c>
       <c r="T6">
-        <v>0.161567678080637</v>
+        <v>0.2252259127414677</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>25.764247</v>
       </c>
       <c r="I7">
-        <v>0.2634242988100205</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="J7">
-        <v>0.2634242988100204</v>
+        <v>0.325995654495798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N7">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P7">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q7">
-        <v>20.66500727261877</v>
+        <v>20.66500727261878</v>
       </c>
       <c r="R7">
         <v>185.985065453569</v>
       </c>
       <c r="S7">
-        <v>0.05507232583755834</v>
+        <v>0.07677101633761803</v>
       </c>
       <c r="T7">
-        <v>0.05507232583755834</v>
+        <v>0.07677101633761803</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>44.155672</v>
       </c>
       <c r="I8">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J8">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.044118333333333</v>
+        <v>0.7521946666666667</v>
       </c>
       <c r="N8">
-        <v>6.132355</v>
+        <v>2.256584</v>
       </c>
       <c r="O8">
-        <v>0.1776005292722278</v>
+        <v>0.07361670343069449</v>
       </c>
       <c r="P8">
-        <v>0.1776005292722278</v>
+        <v>0.0736167034306945</v>
       </c>
       <c r="Q8">
-        <v>30.08647288528444</v>
+        <v>11.07122032716089</v>
       </c>
       <c r="R8">
-        <v>270.77825596756</v>
+        <v>99.64098294444801</v>
       </c>
       <c r="S8">
-        <v>0.08018056883225447</v>
+        <v>0.04112985906083001</v>
       </c>
       <c r="T8">
-        <v>0.08018056883225447</v>
+        <v>0.04112985906083001</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>44.155672</v>
       </c>
       <c r="I9">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J9">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>21.177841</v>
       </c>
       <c r="O9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022597</v>
       </c>
       <c r="P9">
-        <v>0.6133362746356149</v>
+        <v>0.6908862423022598</v>
       </c>
       <c r="Q9">
         <v>103.9024223182391</v>
       </c>
       <c r="R9">
-        <v>935.121800864152</v>
+        <v>935.1218008641521</v>
       </c>
       <c r="S9">
-        <v>0.2769003650341575</v>
+        <v>0.3860000848816917</v>
       </c>
       <c r="T9">
-        <v>0.2769003650341574</v>
+        <v>0.3860000848816916</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>44.155672</v>
       </c>
       <c r="I10">
-        <v>0.4514658214185439</v>
+        <v>0.5587028098799778</v>
       </c>
       <c r="J10">
-        <v>0.4514658214185438</v>
+        <v>0.5587028098799777</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.406242333333333</v>
+        <v>2.406242333333334</v>
       </c>
       <c r="N10">
-        <v>7.218726999999999</v>
+        <v>7.218727</v>
       </c>
       <c r="O10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="P10">
-        <v>0.2090631960921573</v>
+        <v>0.2354970542670457</v>
       </c>
       <c r="Q10">
-        <v>35.41641574106044</v>
+        <v>35.41641574106045</v>
       </c>
       <c r="R10">
-        <v>318.7477416695439</v>
+        <v>318.747741669544</v>
       </c>
       <c r="S10">
-        <v>0.09438488755213188</v>
+        <v>0.131572865937456</v>
       </c>
       <c r="T10">
-        <v>0.09438488755213188</v>
+        <v>0.131572865937456</v>
       </c>
     </row>
   </sheetData>
